--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F0D2BF-71CA-4B78-959B-41688BC54B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -167,18 +178,6 @@
   </si>
   <si>
     <t>寄送記號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>書面寄送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡訊寄送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>電子郵件寄送</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -306,11 +305,51 @@
   <si>
     <t>備註說明</t>
   </si>
+  <si>
+    <t>LetterFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>書面寄送順序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡訊寄送順序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電子郵件寄送順序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailFg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供書面寄送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供簡訊寄送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供電子郵件寄送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是 , N:否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="12"/>
@@ -397,7 +436,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,6 +447,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -483,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,12 +636,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -687,6 +738,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -722,6 +790,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -897,11 +982,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -924,7 +1009,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="26"/>
@@ -1009,22 +1094,22 @@
         <v>23</v>
       </c>
       <c r="B8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="F8" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="G8" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1050,6 +1135,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="35">
+        <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -1071,13 +1157,14 @@
     </row>
     <row r="11" spans="1:7" ht="113.4">
       <c r="A11" s="35">
+        <f t="shared" ref="A11:A26" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>14</v>
@@ -1087,15 +1174,16 @@
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="48.6">
       <c r="A12" s="35">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>40</v>
@@ -1108,102 +1196,107 @@
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="35">
+      <c r="A13" s="36">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="19">
+      <c r="B13" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="37">
         <v>1</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19" t="s">
-        <v>44</v>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="35">
+      <c r="A14" s="36">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="B14" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="37">
         <v>1</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19" t="s">
-        <v>44</v>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="35">
+      <c r="A15" s="36">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="19">
+      <c r="B15" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="37">
         <v>1</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="s">
-        <v>44</v>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="35">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E16" s="19">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="35">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>14</v>
@@ -1212,170 +1305,218 @@
         <v>1</v>
       </c>
       <c r="F17" s="19"/>
-      <c r="G17" s="20" t="s">
-        <v>48</v>
+      <c r="G17" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="35">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E18" s="19">
         <v>1</v>
       </c>
       <c r="F18" s="19"/>
-      <c r="G18" s="20" t="s">
-        <v>65</v>
+      <c r="G18" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="35">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E19" s="19">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="35">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="19" t="s">
-        <v>4</v>
+      <c r="G20" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="35">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="E21" s="19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="19" t="s">
-        <v>4</v>
+      <c r="G21" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="35">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="E22" s="19">
+        <v>1</v>
+      </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="35">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="19">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="7"/>
+      <c r="A24" s="35">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="19">
+        <v>6</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="35">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="7"/>
+      <c r="A26" s="35">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="19">
+        <v>6</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="14"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="5"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="14"/>
       <c r="E28" s="5"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="8"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="4"/>
@@ -1383,33 +1524,57 @@
       <c r="D29" s="14"/>
       <c r="E29" s="5"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
-      <c r="E30" s="10"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="17"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="15"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="7"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="6"/>
       <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="7"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="7"/>
+      <c r="C35" s="9"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="7"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1419,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1464,32 +1629,32 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F0D2BF-71CA-4B78-959B-41688BC54B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968A41FA-DD86-47C5-917D-0B2C77705CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,7 +986,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968A41FA-DD86-47C5-917D-0B2C77705CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEF4A5C-A1A2-42B5-9297-6A06B8C3D684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1589,7 +1589,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEF4A5C-A1A2-42B5-9297-6A06B8C3D684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93473002-E5EF-4BF1-BD8A-80BBD082ACE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="672" windowWidth="18084" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -343,6 +333,32 @@
   </si>
   <si>
     <t>Y:是 , N:否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confidentiality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機密等級</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:普通
+1:密
+2:機密
+3:極機密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-01-30 智偉增加:
+機密、極機密文件
+產製PDF報表時
+增加標示在右下角</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,7 +563,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -556,10 +572,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,9 +584,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,16 +611,16 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,9 +629,6 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -642,6 +652,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -983,569 +996,583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.88671875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="12"/>
+    <col min="1" max="1" width="5.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.88671875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="30" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" s="13" customFormat="1">
-      <c r="A8" s="27" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="35">
+      <c r="A9" s="33">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>10</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="35">
+      <c r="A10" s="33">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>40</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="113.4">
-      <c r="A11" s="35">
-        <f t="shared" ref="A11:A26" si="0">A10+1</f>
+      <c r="A11" s="33">
+        <f t="shared" ref="A11:A27" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>2</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="48.6">
-      <c r="A12" s="35">
+      <c r="A12" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>1</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="36">
+      <c r="A13" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="18">
         <v>1</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="36">
+      <c r="A14" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="18">
         <v>1</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="36">
+      <c r="A15" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="18">
         <v>1</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="35">
+      <c r="A16" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>1</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35">
+    <row r="17" spans="1:8">
+      <c r="A17" s="33">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>1</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35">
+    <row r="18" spans="1:8">
+      <c r="A18" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>1</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="35">
+    <row r="19" spans="1:8">
+      <c r="A19" s="33">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>40</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19" t="s">
+      <c r="F19" s="18"/>
+      <c r="G19" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="35">
+    <row r="20" spans="1:8">
+      <c r="A20" s="33">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>1</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20" t="s">
+      <c r="F20" s="18"/>
+      <c r="G20" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="35">
+    <row r="21" spans="1:8">
+      <c r="A21" s="33">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>1</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="35">
+    <row r="22" spans="1:8">
+      <c r="A22" s="33">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>1</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19" t="s">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="35">
+    <row r="23" spans="1:8" ht="64.8">
+      <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="35">
+      <c r="B23" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="35">
+        <v>1</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="19">
+      <c r="B24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="35">
+      <c r="D24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="33">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19" t="s">
+      <c r="B25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="18">
+        <v>6</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="35">
+    <row r="26" spans="1:8">
+      <c r="A26" s="33">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E27" s="18">
         <v>6</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="11"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="11"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="5"/>
       <c r="F29" s="11"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="5"/>
       <c r="F30" s="11"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="5"/>
       <c r="F31" s="11"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="5"/>
       <c r="F32" s="11"/>
       <c r="G32" s="8"/>
@@ -1555,7 +1582,7 @@
       <c r="C33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="17"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="7"/>
@@ -1563,7 +1590,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="15"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="7"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93473002-E5EF-4BF1-BD8A-80BBD082ACE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC56AAA-58EA-422D-90DA-8AA1FB57C07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="672" windowWidth="18084" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -359,6 +359,30 @@
 機密、極機密文件
 產製PDF報表時
 增加標示在右下角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-否
+1-是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-03-02 Linda增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApLogFlag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏感性資料記錄記號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,14 +671,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -996,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1171,7 +1213,7 @@
     </row>
     <row r="11" spans="1:7" ht="113.4">
       <c r="A11" s="33">
-        <f t="shared" ref="A11:A27" si="0">A10+1</f>
+        <f t="shared" ref="A11:A28" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -1434,47 +1476,54 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="64.8">
-      <c r="A23" s="34">
+      <c r="A23" s="39">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="40">
         <v>1</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35" t="s">
+      <c r="F23" s="40"/>
+      <c r="G23" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="41" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="32.4">
       <c r="A24" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="B24" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="33">
@@ -1482,37 +1531,35 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="18">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="18" t="s">
-        <v>4</v>
-      </c>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="33">
+      <c r="A26" s="39">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="E26" s="18">
+        <v>6</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18" t="s">
         <v>4</v>
@@ -1524,31 +1571,43 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="33">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C28" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E28" s="18">
         <v>6</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="11"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="13"/>
       <c r="E29" s="5"/>
       <c r="F29" s="11"/>
       <c r="G29" s="7"/>
@@ -1559,7 +1618,7 @@
       <c r="D30" s="13"/>
       <c r="E30" s="5"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="8"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="4"/>
@@ -1578,30 +1637,38 @@
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="E33" s="10"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="16"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="7"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="6"/>
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="14"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="7"/>
       <c r="C35" s="9"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="7"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="6"/>
       <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="7"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC56AAA-58EA-422D-90DA-8AA1FB57C07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D375C5-6C31-42E6-9E5C-B39E77210CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -245,9 +245,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FormNo =</t>
-  </si>
-  <si>
     <t>WatermarkFlag</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -384,13 +381,57 @@
   <si>
     <t>敏感性資料記錄記號</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>課組別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdBranchGroup：
+BranchNo單位別：0000
+放款管理課：1
+放款服務課：2
+放款推展課：3
+放款審查課：4
+投資資訊規劃課：5
+專案管理課：6
+軟體測試課：7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findRptGroupNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupNo=, AND FormNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupNo Asc,FormNo Asc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findRptCycleGrp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycle=, AND GroupNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -686,17 +727,17 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1038,25 +1079,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="54.90625" style="13" customWidth="1"/>
     <col min="8" max="8" width="30" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="21.44140625" style="12"/>
+    <col min="9" max="16384" width="21.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
@@ -1071,7 +1112,7 @@
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="26" t="s">
@@ -1084,7 +1125,7 @@
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="28" t="s">
         <v>18</v>
       </c>
@@ -1097,7 +1138,7 @@
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
@@ -1108,7 +1149,7 @@
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="28" t="s">
         <v>20</v>
       </c>
@@ -1121,7 +1162,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
         <v>21</v>
       </c>
@@ -1134,7 +1175,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>22</v>
       </c>
@@ -1145,30 +1186,30 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="D8" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="E8" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="G8" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="33">
         <v>1</v>
       </c>
@@ -1189,7 +1230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="33">
         <f>A9+1</f>
         <v>2</v>
@@ -1211,9 +1252,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="113.4">
+    <row r="11" spans="1:7" ht="119" x14ac:dyDescent="0.4">
       <c r="A11" s="33">
-        <f t="shared" ref="A11:A28" si="0">A10+1</f>
+        <f t="shared" ref="A11:A29" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -1233,7 +1274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="48.6">
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.4">
       <c r="A12" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1252,19 +1293,19 @@
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>3</v>
@@ -1274,19 +1315,19 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>3</v>
@@ -1296,19 +1337,19 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>3</v>
@@ -1318,19 +1359,19 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>14</v>
@@ -1343,16 +1384,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="33">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>14</v>
@@ -1365,7 +1406,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1374,7 +1415,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>14</v>
@@ -1387,7 +1428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="33">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1409,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="33">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1431,29 +1472,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="33">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="E21" s="18">
         <v>1</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="33">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1475,160 +1516,175 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="64.8">
-      <c r="A23" s="39">
+    <row r="23" spans="1:8" ht="68" x14ac:dyDescent="0.4">
+      <c r="A23" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="D23" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="E23" s="18">
+        <v>1</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="40">
-        <v>1</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40" t="s">
+      <c r="H23" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="32.4">
+    </row>
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.4">
       <c r="A24" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>92</v>
-      </c>
       <c r="D24" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>87</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>88</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:8" ht="153" x14ac:dyDescent="0.4">
       <c r="A25" s="33">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>6</v>
+      <c r="B25" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="39">
+        <v>83</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="33">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="18">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="33">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="E27" s="18">
+        <v>6</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="33">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="33">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C29" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E29" s="18">
         <v>6</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="11"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="13"/>
       <c r="E30" s="5"/>
       <c r="F30" s="11"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="13"/>
       <c r="E31" s="5"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="13"/>
@@ -1636,7 +1692,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="13"/>
@@ -1644,31 +1700,39 @@
       <c r="F33" s="11"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="7"/>
-      <c r="C34" s="9"/>
-      <c r="E34" s="10"/>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="16"/>
-    </row>
-    <row r="35" spans="2:7">
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="7"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="6"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="2:7">
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="7"/>
       <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="2:7">
+      <c r="F36" s="11"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="7"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="6"/>
       <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B38" s="7"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1679,22 +1743,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1705,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.35" customHeight="1">
+    <row r="2" spans="1:3" ht="37.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1713,7 +1777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1721,7 +1785,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -1732,7 +1796,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
@@ -1743,12 +1807,34 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D375C5-6C31-42E6-9E5C-B39E77210CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBCFF50-BB67-4882-B8A2-9352BF24A936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>建檔日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>CreateEmpNo</t>
@@ -426,12 +423,15 @@
     <t>Cycle=, AND GroupNo %</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -759,9 +759,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -799,9 +799,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,26 +834,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,26 +869,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1081,66 +1047,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.90625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="54.88671875" style="13" customWidth="1"/>
     <col min="8" max="8" width="30" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="21.453125" style="12"/>
+    <col min="9" max="16384" width="21.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="31"/>
@@ -1149,35 +1115,35 @@
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
@@ -1186,38 +1152,38 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="D8" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="E8" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="G8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="33">
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>3</v>
@@ -1230,19 +1196,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" s="33">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="E10" s="18">
         <v>40</v>
@@ -1252,60 +1218,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="119" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="113.4">
       <c r="A11" s="33">
         <f t="shared" ref="A11:A29" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="18">
         <v>2</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="48.6">
       <c r="A12" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="18">
         <v>1</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>3</v>
@@ -1315,19 +1281,19 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>3</v>
@@ -1337,19 +1303,19 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>3</v>
@@ -1359,88 +1325,88 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="18">
         <v>1</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="33">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="18">
         <v>1</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="18">
         <v>1</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="33">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="18">
         <v>40</v>
@@ -1450,60 +1416,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8">
       <c r="A20" s="33">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="18">
         <v>1</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="33">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="E21" s="18">
         <v>1</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="33">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>3</v>
@@ -1513,83 +1479,83 @@
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="68" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="64.8">
       <c r="A23" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="E23" s="18">
         <v>1</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:8" ht="32.4">
       <c r="A24" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="40" t="s">
-        <v>91</v>
-      </c>
       <c r="D24" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>86</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>87</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="153" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:8" ht="145.80000000000001">
       <c r="A25" s="33">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>93</v>
-      </c>
       <c r="D25" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="18">
         <v>1</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H25" s="39"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8">
       <c r="A26" s="33">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1601,22 +1567,22 @@
         <v>6</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8">
       <c r="A27" s="33">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>9</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>3</v>
@@ -1629,19 +1595,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8">
       <c r="A28" s="33">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>11</v>
-      </c>
       <c r="D28" s="18" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
@@ -1649,16 +1615,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8">
       <c r="A29" s="33">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>12</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>13</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>3</v>
@@ -1669,14 +1635,14 @@
       <c r="F29" s="18"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="11"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="13"/>
@@ -1684,7 +1650,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="13"/>
@@ -1692,7 +1658,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="13"/>
@@ -1700,7 +1666,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="13"/>
@@ -1708,14 +1674,14 @@
       <c r="F34" s="11"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7">
       <c r="B35" s="7"/>
       <c r="C35" s="9"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7">
       <c r="B36" s="7"/>
       <c r="C36" s="9"/>
       <c r="D36" s="6"/>
@@ -1723,12 +1689,12 @@
       <c r="F36" s="11"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7">
       <c r="B37" s="7"/>
       <c r="C37" s="9"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7">
       <c r="B38" s="7"/>
       <c r="C38" s="9"/>
       <c r="D38" s="6"/>
@@ -1745,20 +1711,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1769,72 +1735,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="37.35" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdReport.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBCFF50-BB67-4882-B8A2-9352BF24A936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -388,8 +387,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CdBranchGroup：
-BranchNo單位別：0000
+    <t>findRptGroupNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupNo=, AND FormNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupNo Asc,FormNo Asc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findRptCycleGrp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycle=, AND GroupNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>未設定：0
 放款管理課：1
 放款服務課：2
 放款推展課：3
@@ -399,38 +424,11 @@
 軟體測試課：7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>findRptGroupNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormNo =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupNo=, AND FormNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupNo Asc,FormNo Asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findRptCycleGrp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cycle=, AND GroupNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12">
     <font>
       <sz val="12"/>
@@ -742,8 +740,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -759,9 +757,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -799,9 +797,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -836,7 +834,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -871,7 +869,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1044,11 +1042,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1532,7 +1530,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="145.80000000000001">
+    <row r="25" spans="1:8" ht="129.6">
       <c r="A25" s="33">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1551,7 +1549,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="42" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H25" s="39"/>
     </row>
@@ -1567,7 +1565,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -1607,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
@@ -1708,7 +1706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1778,29 +1776,29 @@
         <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
